--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-51017.0368226409</v>
+        <v>-53718.25347409691</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>59.8012719186829</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>161.520684615001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>81.10851687400151</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.4156738645892</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>20.64107630343883</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>75.02623601535699</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>111.4075712450479</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776993</v>
+        <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863695</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660374</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>235.0708476318439</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.6877278154308</v>
+        <v>383.6877278154327</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4.584449439177028</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.36018225871365</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>193.9455960238325</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>143.5293110515836</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>135.4739678040389</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015377</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>160.5997654599899</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>103.2151181563822</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>180.2158708563817</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>49.57372789032946</v>
       </c>
       <c r="S10" t="n">
-        <v>142.9677947202861</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>226.1520108936091</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>240.1044458298938</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184549</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615203</v>
+        <v>98.88510599615208</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544491</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530784</v>
+        <v>10.48847705530787</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>105.5089280640939</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905236</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1585,7 +1585,7 @@
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>217.3543854060549</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>95.57362600055855</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833619</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016481</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.13764332383</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>46.52295781332893</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465706</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>52.91369288257556</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>121.6381820844801</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141575</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>96.02642072444034</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>98.99704524587889</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>99.97427419833829</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>83.06560892428156</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>20.88994825141549</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3475,13 +3475,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>109.162323074991</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>134.3852063573443</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>36.85665993310002</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.6921136716486</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4141,16 +4141,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833824</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>48.34531439065373</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410.8916005921556</v>
+        <v>367.7894056603333</v>
       </c>
       <c r="C2" t="n">
-        <v>410.8916005921556</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="D2" t="n">
-        <v>410.8916005921556</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="E2" t="n">
-        <v>410.8916005921556</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429521</v>
+        <v>94.46624834395173</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>81.50243557050727</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052542</v>
@@ -4337,13 +4337,13 @@
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411528</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411528</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411528</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411528</v>
+        <v>634.1670622275113</v>
       </c>
       <c r="X2" t="n">
-        <v>840.4214638411528</v>
+        <v>634.1670622275113</v>
       </c>
       <c r="Y2" t="n">
-        <v>677.2692571593336</v>
+        <v>634.1670622275113</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.87051834415</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="C3" t="n">
-        <v>156.87051834415</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="D3" t="n">
-        <v>156.87051834415</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E3" t="n">
-        <v>156.87051834415</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>156.87051834415</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
         <v>21.0971104001205</v>
@@ -4407,52 +4407,52 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004802</v>
+        <v>117.4455628004804</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428383</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="V3" t="n">
-        <v>826.7196740428383</v>
+        <v>652.7312295849122</v>
       </c>
       <c r="W3" t="n">
-        <v>572.4823173146367</v>
+        <v>398.4938728567105</v>
       </c>
       <c r="X3" t="n">
-        <v>364.6308171091039</v>
+        <v>398.4938728567105</v>
       </c>
       <c r="Y3" t="n">
-        <v>156.87051834415</v>
+        <v>398.4938728567105</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.0971104001205</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
         <v>21.0971104001205</v>
@@ -4489,19 +4489,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S4" t="n">
-        <v>1034.005947982349</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="T4" t="n">
-        <v>808.5369117403634</v>
+        <v>493.8069210092336</v>
       </c>
       <c r="U4" t="n">
-        <v>542.1592551731853</v>
+        <v>493.8069210092336</v>
       </c>
       <c r="V4" t="n">
-        <v>287.4747669672985</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="W4" t="n">
-        <v>21.0971104001205</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="X4" t="n">
-        <v>21.0971104001205</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.0971104001205</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>536.2764909326891</v>
+        <v>50.18495430551881</v>
       </c>
       <c r="C5" t="n">
-        <v>536.2764909326891</v>
+        <v>50.18495430551881</v>
       </c>
       <c r="D5" t="n">
-        <v>536.2764909326891</v>
+        <v>50.18495430551881</v>
       </c>
       <c r="E5" t="n">
-        <v>150.4882383344449</v>
+        <v>50.18495430551881</v>
       </c>
       <c r="F5" t="n">
-        <v>143.5427375852414</v>
+        <v>43.23945355631535</v>
       </c>
       <c r="G5" t="n">
-        <v>130.9983022541607</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="H5" t="n">
-        <v>130.9983022541607</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523447</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275141</v>
+        <v>93.76641159275187</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245559</v>
+        <v>239.0325989245574</v>
       </c>
       <c r="L5" t="n">
-        <v>456.149911482563</v>
+        <v>456.1499114825654</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748856</v>
+        <v>729.404193174889</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202379</v>
+        <v>1011.693823202384</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798413</v>
+        <v>1264.916654798418</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189409</v>
+        <v>1446.535482189416</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261731</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261731</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261723</v>
+        <v>1389.996673518259</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261723</v>
+        <v>1177.398442107334</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261723</v>
+        <v>923.7469742438518</v>
       </c>
       <c r="V5" t="n">
-        <v>1297.305610623497</v>
+        <v>923.7469742438518</v>
       </c>
       <c r="W5" t="n">
-        <v>1297.305610623497</v>
+        <v>923.7469742438518</v>
       </c>
       <c r="X5" t="n">
-        <v>923.8398523624172</v>
+        <v>550.281215982772</v>
       </c>
       <c r="Y5" t="n">
-        <v>536.2764909326891</v>
+        <v>162.7178545530419</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>356.3133624887462</v>
+        <v>179.6294278864859</v>
       </c>
       <c r="C6" t="n">
-        <v>181.8603332076192</v>
+        <v>179.6294278864859</v>
       </c>
       <c r="D6" t="n">
-        <v>181.8603332076192</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="E6" t="n">
-        <v>181.8603332076192</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="F6" t="n">
-        <v>35.32577523450419</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="G6" t="n">
-        <v>35.32577523450419</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="H6" t="n">
-        <v>35.32577523450419</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523447</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="J6" t="n">
-        <v>174.2721860626389</v>
+        <v>49.44206107563464</v>
       </c>
       <c r="K6" t="n">
-        <v>284.4686930039493</v>
+        <v>159.6385680169455</v>
       </c>
       <c r="L6" t="n">
-        <v>478.9640368353012</v>
+        <v>539.4894185542239</v>
       </c>
       <c r="M6" t="n">
-        <v>725.2877975060469</v>
+        <v>785.8131792249706</v>
       </c>
       <c r="N6" t="n">
-        <v>992.5396600782692</v>
+        <v>1053.065041797194</v>
       </c>
       <c r="O6" t="n">
-        <v>1214.803107243788</v>
+        <v>1275.328488962713</v>
       </c>
       <c r="P6" t="n">
-        <v>1373.856052442476</v>
+        <v>1434.381434161402</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261731</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261723</v>
+        <v>1530.34668675798</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.282497655818</v>
+        <v>1385.878273152075</v>
       </c>
       <c r="T6" t="n">
-        <v>1194.377855207503</v>
+        <v>1189.973630703759</v>
       </c>
       <c r="U6" t="n">
-        <v>1194.377855207503</v>
+        <v>1189.973630703759</v>
       </c>
       <c r="V6" t="n">
-        <v>1194.377855207503</v>
+        <v>954.8215224720161</v>
       </c>
       <c r="W6" t="n">
-        <v>940.140498479301</v>
+        <v>700.5841657438145</v>
       </c>
       <c r="X6" t="n">
-        <v>732.2889982737681</v>
+        <v>555.6050636715079</v>
       </c>
       <c r="Y6" t="n">
-        <v>524.5286995088143</v>
+        <v>347.8447649065539</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.4222061055756</v>
+        <v>349.7478405654772</v>
       </c>
       <c r="C7" t="n">
-        <v>148.4222061055756</v>
+        <v>180.8116576375703</v>
       </c>
       <c r="D7" t="n">
-        <v>148.4222061055756</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="E7" t="n">
-        <v>148.4222061055756</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="F7" t="n">
-        <v>148.4222061055756</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="G7" t="n">
-        <v>148.4222061055756</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="H7" t="n">
-        <v>148.4222061055756</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523447</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523447</v>
+        <v>30.69501822523462</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223267</v>
+        <v>157.4322756223271</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830389</v>
+        <v>375.1387655830397</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388152</v>
+        <v>615.0688576388166</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974824</v>
+        <v>854.7285647974842</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891672</v>
+        <v>1060.076798891674</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934022</v>
+        <v>1212.267005934024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495184</v>
+        <v>1234.200536495187</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.866490402741</v>
+        <v>1234.200536495187</v>
       </c>
       <c r="S7" t="n">
-        <v>1113.866490402741</v>
+        <v>1030.691890529576</v>
       </c>
       <c r="T7" t="n">
-        <v>889.2012322792858</v>
+        <v>1030.691890529576</v>
       </c>
       <c r="U7" t="n">
-        <v>600.0613614556573</v>
+        <v>1030.691890529576</v>
       </c>
       <c r="V7" t="n">
-        <v>437.8393761425363</v>
+        <v>776.0074023236892</v>
       </c>
       <c r="W7" t="n">
-        <v>148.4222061055756</v>
+        <v>486.5902322867286</v>
       </c>
       <c r="X7" t="n">
-        <v>148.4222061055756</v>
+        <v>486.5902322867286</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.4222061055756</v>
+        <v>486.5902322867286</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>797.0848490996759</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="C8" t="n">
-        <v>428.1223321592641</v>
+        <v>1399.987221986177</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251364</v>
+        <v>1041.721523379426</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>655.933270781182</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>648.9877700319786</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>233.2830197562674</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4805,10 +4805,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182944</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="X8" t="n">
-        <v>1291.481876182944</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="Y8" t="n">
-        <v>901.3425442071327</v>
+        <v>1768.949738926588</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
@@ -4884,25 +4884,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783101</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>683.7982798220356</v>
+        <v>475.205037342667</v>
       </c>
       <c r="C10" t="n">
-        <v>514.8620968941287</v>
+        <v>475.205037342667</v>
       </c>
       <c r="D10" t="n">
-        <v>514.8620968941287</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941287</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1586.371647458003</v>
       </c>
       <c r="S10" t="n">
-        <v>1389.450799731204</v>
+        <v>1389.742899617864</v>
       </c>
       <c r="T10" t="n">
-        <v>1166.47231892594</v>
+        <v>1166.764418812599</v>
       </c>
       <c r="U10" t="n">
-        <v>1166.47231892594</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="V10" t="n">
-        <v>911.787830720053</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="W10" t="n">
-        <v>911.787830720053</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="X10" t="n">
-        <v>683.7982798220356</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="Y10" t="n">
-        <v>683.7982798220356</v>
+        <v>656.8535021729067</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1875.629661109387</v>
+        <v>1872.090169197696</v>
       </c>
       <c r="C11" t="n">
-        <v>1647.193286469378</v>
+        <v>1503.127652257284</v>
       </c>
       <c r="D11" t="n">
-        <v>1288.927587862627</v>
+        <v>1144.861953650534</v>
       </c>
       <c r="E11" t="n">
-        <v>903.1393352643829</v>
+        <v>759.0737010522898</v>
       </c>
       <c r="F11" t="n">
-        <v>492.1534304747753</v>
+        <v>759.0737010522897</v>
       </c>
       <c r="G11" t="n">
-        <v>77.53766591592078</v>
+        <v>344.4579364934352</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592078</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656966</v>
+        <v>695.1615405656976</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.956123087833</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484044</v>
+        <v>2455.600890484045</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535298</v>
+        <v>3033.988513535299</v>
       </c>
       <c r="P11" t="n">
         <v>3493.127967479997</v>
@@ -5069,22 +5069,22 @@
         <v>3776.99935034538</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926745</v>
+        <v>3573.020743926744</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048274</v>
+        <v>3319.526802048273</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704703</v>
+        <v>2988.463914704702</v>
       </c>
       <c r="W11" t="n">
         <v>2635.695259434588</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173509</v>
+        <v>2262.229501173508</v>
       </c>
       <c r="Y11" t="n">
-        <v>2262.229501173509</v>
+        <v>1872.090169197696</v>
       </c>
     </row>
     <row r="12">
@@ -5112,25 +5112,25 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870415</v>
+        <v>193.8410919870414</v>
       </c>
       <c r="K12" t="n">
-        <v>470.776996404666</v>
+        <v>193.8410919870414</v>
       </c>
       <c r="L12" t="n">
-        <v>889.474037062618</v>
+        <v>612.5381326449932</v>
       </c>
       <c r="M12" t="n">
-        <v>996.4574081599334</v>
+        <v>1120.494698601522</v>
       </c>
       <c r="N12" t="n">
-        <v>1532.266717861144</v>
+        <v>1656.304008302732</v>
       </c>
       <c r="O12" t="n">
         <v>2000.207762193667</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>708.7748731129426</v>
+        <v>184.1123407281369</v>
       </c>
       <c r="C13" t="n">
-        <v>539.8386901850357</v>
+        <v>184.1123407281368</v>
       </c>
       <c r="D13" t="n">
-        <v>539.8386901850357</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="E13" t="n">
-        <v>391.9255966026426</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0356491047322</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J13" t="n">
-        <v>136.855221875865</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648149</v>
+        <v>364.1690246648146</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344816</v>
+        <v>710.5788654344813</v>
       </c>
       <c r="M13" t="n">
         <v>1086.20859537694</v>
@@ -5212,37 +5212,37 @@
         <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818666</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010724</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.36296874281</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.36296874281</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.36296874281</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.47163617725</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1627.379943126701</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1407.83005887816</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>1118.4128888412</v>
+        <v>814.542935599924</v>
       </c>
       <c r="X13" t="n">
-        <v>890.4233379431823</v>
+        <v>586.5533847019067</v>
       </c>
       <c r="Y13" t="n">
-        <v>890.4233379431823</v>
+        <v>365.7608055583765</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,19 +5358,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452614</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>878.3568999154068</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154068</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5516,25 +5516,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400693</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121623</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998266</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998266</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998266</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235162</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258103</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.4315576023</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.4315576023</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.01438756534</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138391</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.502065570309</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784078</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780505009</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381651</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1380.253191019955</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1152.263640121938</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y22" t="n">
-        <v>931.4710609784078</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6072,10 +6072,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>198.0274703142541</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y25" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6309,16 +6309,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961266</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.928827395873</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>802.9288273958729</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>652.8121879835371</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>504.899094401144</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>358.0091469032337</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>190.8130476181136</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.35942226766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261127</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,7 +6458,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6491,7 +6491,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>641.8461362382112</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>472.9099533103043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>322.7933138979686</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1044.287180211981</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>823.4946010684509</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>429.5088224239596</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1026.887310050512</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1654.485273605118</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O33" t="n">
-        <v>2206.395003844405</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400713</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998287</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,7 +6874,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
@@ -6886,7 +6886,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
         <v>1688.385853854706</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6929,28 +6929,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356193</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232835</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408904</v>
+        <v>197.0043242297709</v>
       </c>
       <c r="F37" t="n">
-        <v>484.81129684298</v>
+        <v>197.0043242297709</v>
       </c>
       <c r="G37" t="n">
-        <v>317.61519755786</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7254,25 +7254,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>740.5562989961525</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1368.154262550759</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703107</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>526.5658826424042</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>376.4492432300684</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429801</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7342,10 +7342,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,7 +7679,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7725,10 +7725,10 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
         <v>680.0291294438176</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2331.083728933013</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2111.482263955954</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1822.407037300152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1567.722549094265</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.305379057304</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1050.315828159287</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y46" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069063</v>
+        <v>99.37288961069086</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637014</v>
+        <v>34.43939438636971</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>187.2277845514402</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>105.5468419254474</v>
+        <v>44.41009271441821</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>186.449012614385</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>139.1208808773984</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>49.8730575094809</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184543</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>43.1065449541185</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992737</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905233</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>34.78325791777316</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>71.67319509806929</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393265</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>179.1866975757082</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>233.6093054540154</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864943</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>96.94647126761473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>44.26829212178355</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>126.7126101431583</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844823088</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864968</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>144.6341900408534</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,13 +25363,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>142.975320248837</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>12.04875628922483</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>181.7279934189948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145.1398665102887</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823093</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>132.6809716109909</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26314,16 @@
         <v>328416.7079457133</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457136</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
         <v>293035.6977097586</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="G2" t="n">
         <v>322858.6398760023</v>
@@ -26332,10 +26332,10 @@
         <v>322858.6398760023</v>
       </c>
       <c r="I2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="J2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="K2" t="n">
         <v>322858.6398760023</v>
@@ -26344,13 +26344,13 @@
         <v>322858.6398760024</v>
       </c>
       <c r="M2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="N2" t="n">
         <v>322858.6398760023</v>
       </c>
       <c r="O2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
         <v>322858.6398760023</v>
@@ -26366,16 +26366,16 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657067</v>
+        <v>132804.2190657087</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929378</v>
+        <v>265413.0723929359</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545783</v>
+        <v>313577.1573545779</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.268770428</v>
+        <v>189308.2687704284</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417416</v>
+        <v>30877.42926417462</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.3450204957</v>
+        <v>65018.34502049522</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273091</v>
+        <v>81897.40371273094</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202352</v>
+        <v>49839.5741320235</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>248543.2666865467</v>
       </c>
       <c r="C4" t="n">
-        <v>212545.795951324</v>
+        <v>212545.7959513234</v>
       </c>
       <c r="D4" t="n">
-        <v>136726.2736921026</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="E4" t="n">
-        <v>9231.78179711005</v>
+        <v>9231.781797110052</v>
       </c>
       <c r="F4" t="n">
+        <v>9337.200356756584</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9337.200356756563</v>
+      </c>
+      <c r="H4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="G4" t="n">
-        <v>9337.200356756543</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9337.20035675657</v>
-      </c>
       <c r="I4" t="n">
-        <v>9337.200356756604</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
         <v>9337.200356756592</v>
@@ -26445,19 +26445,19 @@
         <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="N4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="M4" t="n">
-        <v>9337.200356756632</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.200356756613</v>
-      </c>
       <c r="O4" t="n">
-        <v>9337.200356756612</v>
+        <v>9337.200356756548</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667491</v>
+        <v>72593.65038667507</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738573</v>
+        <v>85137.48506738571</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-663262.3425362929</v>
       </c>
       <c r="C6" t="n">
-        <v>-89526.95745799234</v>
+        <v>-89526.95745799363</v>
       </c>
       <c r="D6" t="n">
-        <v>-166660.4105791716</v>
+        <v>-166660.4105791697</v>
       </c>
       <c r="E6" t="n">
-        <v>-114910.7265093155</v>
+        <v>-115131.8578232898</v>
       </c>
       <c r="F6" t="n">
-        <v>23090.64092491056</v>
+        <v>23055.90299947459</v>
       </c>
       <c r="G6" t="n">
-        <v>212398.9096953386</v>
+        <v>212364.1717699029</v>
       </c>
       <c r="H6" t="n">
-        <v>212398.9096953386</v>
+        <v>212364.1717699029</v>
       </c>
       <c r="I6" t="n">
-        <v>212398.9096953386</v>
+        <v>212364.1717699031</v>
       </c>
       <c r="J6" t="n">
-        <v>143399.7552762245</v>
+        <v>143365.017350789</v>
       </c>
       <c r="K6" t="n">
-        <v>181521.4804311644</v>
+        <v>181486.7425057283</v>
       </c>
       <c r="L6" t="n">
-        <v>147380.564674843</v>
+        <v>147345.8267494077</v>
       </c>
       <c r="M6" t="n">
-        <v>130501.5059826077</v>
+        <v>130466.7680571721</v>
       </c>
       <c r="N6" t="n">
-        <v>162559.3355633151</v>
+        <v>162524.5976378794</v>
       </c>
       <c r="O6" t="n">
-        <v>212398.9096953385</v>
+        <v>212364.171769903</v>
       </c>
       <c r="P6" t="n">
-        <v>212398.9096953386</v>
+        <v>212364.1717699029</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695746</v>
+        <v>717.3319511695762</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154308</v>
+        <v>383.6877278154327</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490097</v>
+        <v>969.2208239490096</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000962</v>
+        <v>103.2769374000978</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479645</v>
+        <v>216.7329409479629</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974122</v>
+        <v>268.1763450974117</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267225</v>
+        <v>165.7342631267229</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139246</v>
+        <v>119.9738478139265</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846079</v>
+        <v>256.897104284606</v>
       </c>
       <c r="E4" t="n">
-        <v>328.635991848971</v>
+        <v>328.6359918489709</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506386</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139246</v>
+        <v>119.9738478139265</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846079</v>
+        <v>256.897104284606</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489708</v>
+        <v>328.6359918489709</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139246</v>
+        <v>119.9738478139265</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846079</v>
+        <v>256.897104284606</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848971</v>
+        <v>328.6359918489709</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506386</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>119.0199616619743</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695013</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>254.3923607105851</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590676</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.7172540410526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,22 +27455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>85.42466677586583</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.607045721834282</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.0780879401549</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.5447505011713</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>177.111407308471</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>271.3262704184327</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>309.9416328899765</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863669</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>92.68141083829101</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840622753</v>
+        <v>2.550210840620878</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333228</v>
+        <v>97.33388804333225</v>
       </c>
       <c r="I6" t="n">
-        <v>31.6890153303403</v>
+        <v>36.27346476951721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713863</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27752,13 +27752,13 @@
         <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>62.24367415189388</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>44.35801237789843</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643578</v>
+        <v>1.905236112643379</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315183</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>91.53787786383813</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>279.5187235070983</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>120.8026817060237</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>51.98384452924417</v>
       </c>
       <c r="S10" t="n">
-        <v>51.69466564145137</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.104455479167116e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.449080855309148e-12</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365122</v>
+        <v>2.883746537365128</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579056</v>
+        <v>29.53316922579063</v>
       </c>
       <c r="I5" t="n">
-        <v>111.175638381769</v>
+        <v>111.1756383817692</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756932</v>
+        <v>244.7543826756938</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023589</v>
+        <v>366.8233736023597</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952469</v>
+        <v>455.0768316952478</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791138</v>
+        <v>506.3606591791149</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284025</v>
+        <v>514.5541040284037</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974781</v>
+        <v>485.8788493974791</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562766</v>
+        <v>414.6863567562775</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.412183886888</v>
+        <v>311.4121838868887</v>
       </c>
       <c r="R5" t="n">
-        <v>181.146143427762</v>
+        <v>181.1461434277624</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020778</v>
+        <v>65.71337422020792</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731583</v>
+        <v>12.62360046731586</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892097</v>
+        <v>0.2306997229892102</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270406</v>
+        <v>1.542940423270409</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316418</v>
+        <v>14.90155619316422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189775</v>
+        <v>53.12316808189787</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862624</v>
+        <v>145.7740335862627</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453795</v>
+        <v>249.1510419453801</v>
       </c>
       <c r="L6" t="n">
-        <v>335.014323043866</v>
+        <v>335.0143230438667</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874181</v>
+        <v>390.945913387419</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189114</v>
+        <v>401.2930884189123</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348671</v>
+        <v>367.1047769348679</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190655</v>
+        <v>294.6339480190662</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739557</v>
+        <v>196.9549915739561</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392927</v>
+        <v>95.79765189392948</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399195</v>
+        <v>28.65944163399201</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989046</v>
+        <v>6.219132670989059</v>
       </c>
       <c r="U6" t="n">
-        <v>0.101509238373053</v>
+        <v>0.1015092383730533</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141856</v>
+        <v>1.293549420141858</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907942</v>
+        <v>11.50083029907944</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572055</v>
+        <v>38.90055892572063</v>
       </c>
       <c r="J7" t="n">
-        <v>91.4539440040292</v>
+        <v>91.4539440040294</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401174</v>
+        <v>150.2869235401177</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545447</v>
+        <v>192.3155201545451</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773274</v>
+        <v>202.7697513773279</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022534</v>
+        <v>197.9483399022538</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669598</v>
+        <v>182.8373307669602</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960658</v>
+        <v>156.4489225960662</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266058</v>
+        <v>108.317124626606</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565106</v>
+        <v>58.16268574565119</v>
       </c>
       <c r="S7" t="n">
-        <v>22.5430385310176</v>
+        <v>22.54303853101765</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060655</v>
+        <v>5.526983886060667</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864675</v>
+        <v>0.07055724109864692</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869147</v>
+        <v>4.833130601869145</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639242</v>
+        <v>49.4972987763924</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285605</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203919</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.792336797513</v>
+        <v>614.7923367975128</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544661</v>
+        <v>762.7042574544658</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954566</v>
+        <v>848.6554437954562</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180174</v>
+        <v>862.387576118017</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956809</v>
+        <v>814.3281336956807</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620362</v>
+        <v>695.010221962036</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825973</v>
+        <v>521.923732282597</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696631</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900933</v>
@@ -31792,7 +31792,7 @@
         <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495317</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469216</v>
+        <v>89.03390294469213</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193139</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598383</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747752</v>
+        <v>561.480683474775</v>
       </c>
       <c r="M12" t="n">
-        <v>250.1980451314278</v>
+        <v>655.2214742821482</v>
       </c>
       <c r="N12" t="n">
-        <v>672.563237034051</v>
+        <v>672.5632370340506</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924478</v>
+        <v>489.9737736272074</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383448</v>
+        <v>493.8035753383447</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047542</v>
+        <v>330.0946129047541</v>
       </c>
       <c r="R12" t="n">
         <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627656</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868434</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.17012847696438</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535158</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092169</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798458</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329028</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100543</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770066</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531031</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806241</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493066</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811716</v>
+        <v>97.48008457811713</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493542</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.26317018837749</v>
+        <v>9.263170188377487</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473724</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>397.4049812900382</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32093,7 +32093,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>484.1423712692491</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,25 +32318,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>606.5820696732821</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32792,13 +32792,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33029,19 +33029,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>484.1423712692491</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>459.3154675919703</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,19 +33974,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>675.952017818248</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>362.5355639238086</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34445,13 +34445,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912724</v>
+        <v>97.32166909127262</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900694</v>
+        <v>63.7084781490075</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573784</v>
+        <v>146.7335225573792</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252596</v>
+        <v>219.3104167252606</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518411</v>
+        <v>276.0144259518422</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318116</v>
+        <v>285.1410404318128</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757913</v>
+        <v>255.7806379757924</v>
       </c>
       <c r="P5" t="n">
-        <v>183.453361001007</v>
+        <v>183.4533610010079</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243856</v>
+        <v>89.10649401243924</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>145.0274422600045</v>
+        <v>18.93640691959598</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710206</v>
+        <v>111.3096029710211</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639918</v>
+        <v>383.6877278154327</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653998</v>
+        <v>248.8118794654006</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355781</v>
+        <v>269.951376335579</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904227</v>
+        <v>224.5085324904235</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047352</v>
+        <v>160.6595406047359</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.5200594133815</v>
+        <v>101.3833102023528</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142345</v>
+        <v>128.0174317142349</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148608</v>
+        <v>219.9055454148612</v>
       </c>
       <c r="M7" t="n">
-        <v>242.353628339168</v>
+        <v>242.3536283391684</v>
       </c>
       <c r="N7" t="n">
-        <v>242.080512281482</v>
+        <v>242.0805122814824</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809995</v>
+        <v>207.4224586809999</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609593</v>
+        <v>153.7274818609597</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491138</v>
+        <v>22.15508137491162</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35264,16 +35264,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>521.873694610508</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937056</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525325</v>
+        <v>394.7024857525323</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844788</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681839</v>
+        <v>618.3092105681835</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214265</v>
+        <v>632.974512521426</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739941</v>
+        <v>584.2299222739939</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067667</v>
+        <v>463.7772262067664</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081477</v>
+        <v>299.6180424081475</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553096</v>
+        <v>88.01360235553085</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526472</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854793</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>422.926303694901</v>
+        <v>422.9263036949008</v>
       </c>
       <c r="M12" t="n">
-        <v>108.0640112094095</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507177</v>
+        <v>541.2215249507174</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480033</v>
+        <v>347.377529182763</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240146</v>
+        <v>359.8291679240144</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187327</v>
+        <v>190.1128388187326</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655356</v>
+        <v>14.87641069655351</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186287</v>
+        <v>59.91672319186281</v>
       </c>
       <c r="K13" t="n">
-        <v>229.60990180702</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703705</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388472</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323316</v>
+        <v>375.8916272323315</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946637</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142001</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776326</v>
+        <v>95.3763835677632</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>259.5635423156792</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>350.1679638549188</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>463.9858252288377</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36677,19 +36677,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>350.1679638549188</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>316.7192231475259</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>533.3557733738036</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>222.5537898377871</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38093,13 +38093,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
